--- a/outputs/filtered_summary.xlsx
+++ b/outputs/filtered_summary.xlsx
@@ -19,31 +19,28 @@
     <t>aggr</t>
   </si>
   <si>
-    <t>IMPHAL EAST_IED-IV_HEINGANG (CT)_HEINGANGCT__any_any_withdoc</t>
+    <t>THOUBAL___801__any_any_any</t>
   </si>
   <si>
     <t>Surveyed habs</t>
   </si>
   <si>
-    <t>Surveyed habs cat-III</t>
-  </si>
-  <si>
     <t>DPR habs</t>
   </si>
   <si>
     <t>DPR habs cat-III</t>
   </si>
   <si>
-    <t>STATUS (1 habs)</t>
+    <t>STATUS (2 habs)</t>
   </si>
   <si>
     <t>▷ Completed</t>
   </si>
   <si>
-    <t>▷ Completed cat-III</t>
-  </si>
-  <si>
-    <t>▷ Doc submitted 📑</t>
+    <t>▷ Ongoing</t>
+  </si>
+  <si>
+    <t>▷ Cert submitted 📑</t>
   </si>
   <si>
     <t>Progress Qty</t>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>▷ HT</t>
+  </si>
+  <si>
+    <t>▷ HT_CONDUCTOR</t>
   </si>
   <si>
     <t>▷ LT_3P</t>
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -476,16 +476,16 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -508,16 +508,16 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -525,7 +525,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -533,7 +533,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -549,7 +549,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -557,7 +557,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>2.028</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -565,7 +565,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -573,7 +573,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -581,7 +581,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2">

--- a/outputs/filtered_summary.xlsx
+++ b/outputs/filtered_summary.xlsx
@@ -14,24 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>aggr</t>
   </si>
   <si>
-    <t>THOUBAL___801__any_any_any</t>
+    <t>___269882__any_any_any_any</t>
   </si>
   <si>
     <t>Surveyed habs</t>
   </si>
   <si>
+    <t>▷ approved</t>
+  </si>
+  <si>
+    <t>Surveyed habs cat-III</t>
+  </si>
+  <si>
     <t>DPR habs</t>
   </si>
   <si>
     <t>DPR habs cat-III</t>
   </si>
   <si>
-    <t>STATUS (2 habs)</t>
+    <t>STATUS (1 Approved habs)</t>
   </si>
   <si>
     <t>▷ Completed</t>
@@ -40,7 +46,13 @@
     <t>▷ Ongoing</t>
   </si>
   <si>
+    <t>▷ Completed cat-III</t>
+  </si>
+  <si>
     <t>▷ Cert submitted 📑</t>
+  </si>
+  <si>
+    <t>▷ non-surveyed</t>
   </si>
   <si>
     <t>Progress Qty</t>
@@ -434,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -476,8 +488,8 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="B5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -485,15 +497,15 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -508,8 +520,8 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
+      <c r="B9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -517,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -525,7 +537,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -533,15 +545,15 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -557,7 +569,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2.028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -581,7 +593,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -589,7 +601,39 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/filtered_summary.xlsx
+++ b/outputs/filtered_summary.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>aggr</t>
   </si>
   <si>
-    <t>___269882__any_any_any_any</t>
+    <t>___thongju__any_issue_any_any</t>
   </si>
   <si>
     <t>Surveyed habs</t>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>▷ Completed</t>
-  </si>
-  <si>
-    <t>▷ Ongoing</t>
   </si>
   <si>
     <t>▷ Completed cat-III</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -497,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -505,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -544,16 +541,16 @@
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>1</v>
+      <c r="B12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
+      <c r="B13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -561,7 +558,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -577,7 +574,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -593,7 +590,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -601,7 +598,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -609,7 +606,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -617,7 +614,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -625,15 +622,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
